--- a/data/trans_orig/P6601-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>156226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136067</v>
+        <v>136280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176225</v>
+        <v>175693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4066785379179755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3542039211492775</v>
+        <v>0.3547566794870392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.45874065710997</v>
+        <v>0.4573542623614129</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -765,19 +765,19 @@
         <v>106144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94168</v>
+        <v>93654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116813</v>
+        <v>116457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6816827090872848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6047706392110099</v>
+        <v>0.6014694886093027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7501997146641517</v>
+        <v>0.7479157229674653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -786,19 +786,19 @@
         <v>262370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>239535</v>
+        <v>238814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>286599</v>
+        <v>283826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4859969324821053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4436986857018365</v>
+        <v>0.4423641158681047</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.53087737483914</v>
+        <v>0.525740121405767</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>92578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77176</v>
+        <v>76392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111776</v>
+        <v>109301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2409940807338984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2008999274884615</v>
+        <v>0.1988595135127476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2909706897902865</v>
+        <v>0.2845269548740958</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -836,19 +836,19 @@
         <v>38661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28845</v>
+        <v>28377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50308</v>
+        <v>50165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2482929973565444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1852521358681461</v>
+        <v>0.1822450104478917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3230888585102227</v>
+        <v>0.3221745176555489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -857,19 +857,19 @@
         <v>131239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111623</v>
+        <v>111518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154022</v>
+        <v>151298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2430992791609044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.206762624426883</v>
+        <v>0.206569458461709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2852996737743219</v>
+        <v>0.280254099187216</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>123755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106672</v>
+        <v>105152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143214</v>
+        <v>143020</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3221540381500546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2776819375120074</v>
+        <v>0.2737272442565576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3728065101552913</v>
+        <v>0.3723033850576688</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>10903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5833</v>
+        <v>5857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18198</v>
+        <v>18981</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07002429355617085</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03746284176994203</v>
+        <v>0.03761740157131278</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1168708587529177</v>
+        <v>0.121901103041729</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>130</v>
@@ -928,19 +928,19 @@
         <v>134659</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114668</v>
+        <v>114708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>155167</v>
+        <v>153605</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2494332263964807</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2124039638562036</v>
+        <v>0.2124785904197087</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2874209698038032</v>
+        <v>0.284527489785445</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>11591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6314</v>
+        <v>6205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21221</v>
+        <v>19728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03017334319807157</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01643703375906615</v>
+        <v>0.01615272568905761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05524200419120103</v>
+        <v>0.05135568318447181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>11591</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5272</v>
+        <v>6388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19856</v>
+        <v>20495</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02147056196050962</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00976537181850322</v>
+        <v>0.01183265858458691</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03678067995586123</v>
+        <v>0.03796358925634862</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>270777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>243964</v>
+        <v>248595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>295489</v>
+        <v>295893</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4853333611994847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4372745010906627</v>
+        <v>0.4455753068016247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5296252499838922</v>
+        <v>0.5303510663997302</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>178</v>
@@ -1116,19 +1116,19 @@
         <v>192719</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176466</v>
+        <v>177548</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>206568</v>
+        <v>206767</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7223905778989845</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6614686856320401</v>
+        <v>0.6655257081986024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7743054622292633</v>
+        <v>0.7750484979809608</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>419</v>
@@ -1137,19 +1137,19 @@
         <v>463496</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>434504</v>
+        <v>434334</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>493985</v>
+        <v>494629</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5620181879546879</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5268640470816338</v>
+        <v>0.5266572128803826</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5989880867481022</v>
+        <v>0.5997693712527485</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>149169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128112</v>
+        <v>127419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>171981</v>
+        <v>172302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2673663167552319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2296235478564241</v>
+        <v>0.2283814987733691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3082532359599204</v>
+        <v>0.3088284172258181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1187,19 +1187,19 @@
         <v>45123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32591</v>
+        <v>32585</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57887</v>
+        <v>57904</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1691407554977425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1221641207648095</v>
+        <v>0.1221423200611484</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2169830498099028</v>
+        <v>0.2170503930500929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1208,19 +1208,19 @@
         <v>194292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170064</v>
+        <v>169485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220094</v>
+        <v>219741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2355916665132548</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2062137711903458</v>
+        <v>0.2055113458804765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2668777587731405</v>
+        <v>0.2664495874153437</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>92459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74495</v>
+        <v>75697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111812</v>
+        <v>113065</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.165721536454271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1335229950768505</v>
+        <v>0.1356773823964542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2004089049822778</v>
+        <v>0.2026551629465732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1258,19 +1258,19 @@
         <v>17987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10905</v>
+        <v>11140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27741</v>
+        <v>27202</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06742306686679858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04087468811655032</v>
+        <v>0.04175765735184964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.103986335675824</v>
+        <v>0.101965565776745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -1279,19 +1279,19 @@
         <v>110446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>93021</v>
+        <v>92143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>133353</v>
+        <v>131987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1339233013464476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1127933778624668</v>
+        <v>0.1117292170210532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1616985733430688</v>
+        <v>0.1600432237486351</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>45514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33186</v>
+        <v>32661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60517</v>
+        <v>61703</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08157878559101245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05948148940904643</v>
+        <v>0.05853996026289508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1084696923689054</v>
+        <v>0.1105939393278986</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1329,19 +1329,19 @@
         <v>10950</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6031</v>
+        <v>6174</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19430</v>
+        <v>19488</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0410455997364744</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02260776926192612</v>
+        <v>0.02314365833214789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07283330543649338</v>
+        <v>0.07305045329763397</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -1350,19 +1350,19 @@
         <v>56465</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42102</v>
+        <v>42355</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73698</v>
+        <v>72565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06846684418560971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05105121398459755</v>
+        <v>0.05135846124888641</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08936352957121906</v>
+        <v>0.08798965603974714</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>214883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>193693</v>
+        <v>192233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>237813</v>
+        <v>234784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5307830222609269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.478442886943264</v>
+        <v>0.4748366558165565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5874243558782336</v>
+        <v>0.5799424704069243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -1475,19 +1475,19 @@
         <v>173972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160792</v>
+        <v>162219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184741</v>
+        <v>184712</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8205673394189367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7584039012016043</v>
+        <v>0.7651321000692032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8713620483341612</v>
+        <v>0.8712234197703991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>367</v>
@@ -1496,19 +1496,19 @@
         <v>388855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>364600</v>
+        <v>362283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>414313</v>
+        <v>413988</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6303823022729329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5910614006530851</v>
+        <v>0.5873048733213121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6716519586843008</v>
+        <v>0.6711265177351557</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>93439</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75911</v>
+        <v>76655</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111650</v>
+        <v>112811</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.230804636642398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1875092473392666</v>
+        <v>0.1893456459099208</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2757866247488566</v>
+        <v>0.2786555489937196</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -1546,19 +1546,19 @@
         <v>31735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21774</v>
+        <v>22071</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43639</v>
+        <v>43496</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1496836083631227</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1027015897339006</v>
+        <v>0.1041021180038385</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2058299328511922</v>
+        <v>0.2051585790955169</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>121</v>
@@ -1567,19 +1567,19 @@
         <v>125174</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>105481</v>
+        <v>105858</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>147506</v>
+        <v>147073</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2029232243917693</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1709976458848341</v>
+        <v>0.1716088249009827</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2391251532291457</v>
+        <v>0.2384243240211243</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>62073</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48197</v>
+        <v>46805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77314</v>
+        <v>78371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.153326370373612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1190518183540801</v>
+        <v>0.1156130731552103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1909746008620997</v>
+        <v>0.1935836500250655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         <v>5375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2370</v>
+        <v>2475</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10546</v>
+        <v>11156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02535362986055193</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01118018356920194</v>
+        <v>0.01167445577552369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04973989940586285</v>
+        <v>0.05262112483014018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -1638,19 +1638,19 @@
         <v>67448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53015</v>
+        <v>52375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85806</v>
+        <v>85867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.109341958307192</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08594383060554844</v>
+        <v>0.08490559348100309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1391017394948833</v>
+        <v>0.1392008871224814</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>34446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24509</v>
+        <v>23926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48330</v>
+        <v>46393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08508597072306313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06054004784043066</v>
+        <v>0.05909851132809088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1193811136027246</v>
+        <v>0.1145954684394726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4847</v>
+        <v>3814</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004395422357388735</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02286359443346015</v>
+        <v>0.01798715697298612</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1709,19 +1709,19 @@
         <v>35378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24950</v>
+        <v>24451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48295</v>
+        <v>48366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05735251502810584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04044695920215782</v>
+        <v>0.0396382610051972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07829227441474036</v>
+        <v>0.07840786062634711</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>302091</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>279792</v>
+        <v>278593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>326688</v>
+        <v>326855</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5458449869108846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5055529051915293</v>
+        <v>0.5033876766709596</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.590288697268593</v>
+        <v>0.5905915823376147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>286</v>
@@ -1834,19 +1834,19 @@
         <v>303440</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286904</v>
+        <v>287441</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>319145</v>
+        <v>318707</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7856171260184162</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7428047291668496</v>
+        <v>0.744195044172423</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8262773683990167</v>
+        <v>0.8251452236784795</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>602</v>
@@ -1855,19 +1855,19 @@
         <v>605531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>575407</v>
+        <v>577743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>635113</v>
+        <v>634015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6444003794703057</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6123427674486024</v>
+        <v>0.6148283859412956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6758812179587231</v>
+        <v>0.6747129607998671</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>112655</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96507</v>
+        <v>96251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132457</v>
+        <v>131274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2035560019494473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1743771897695836</v>
+        <v>0.173914655032408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2393346035767772</v>
+        <v>0.2371973281688771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1905,19 +1905,19 @@
         <v>51917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39344</v>
+        <v>39813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66881</v>
+        <v>67539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.134414672816566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.101863275070066</v>
+        <v>0.1030778076782906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1731580606759987</v>
+        <v>0.1748604476760273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>166</v>
@@ -1926,19 +1926,19 @@
         <v>164572</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>141186</v>
+        <v>143240</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>191496</v>
+        <v>187135</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1751363079010272</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1502484485719841</v>
+        <v>0.1524351329632895</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2037880891323325</v>
+        <v>0.1991472094363174</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>96093</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78324</v>
+        <v>78389</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115391</v>
+        <v>115295</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1736293160852069</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1415227521180935</v>
+        <v>0.1416397942269144</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2084987878047088</v>
+        <v>0.2083250195386334</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1976,19 +1976,19 @@
         <v>19723</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12851</v>
+        <v>12076</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30293</v>
+        <v>29288</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0510637266277059</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03327187845367562</v>
+        <v>0.03126629762900858</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07842926814001017</v>
+        <v>0.07582757947652062</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>115</v>
@@ -1997,19 +1997,19 @@
         <v>115816</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95930</v>
+        <v>96640</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>135221</v>
+        <v>137976</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1232502360627215</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1020875872592498</v>
+        <v>0.1028432872210686</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1439005156078421</v>
+        <v>0.1468322958493236</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>42598</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32096</v>
+        <v>31120</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56335</v>
+        <v>56579</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0769696950544612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05799445705168326</v>
+        <v>0.05623020018656502</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.101791233141901</v>
+        <v>0.1022318975847799</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2047,19 +2047,19 @@
         <v>11164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5228</v>
+        <v>6006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19089</v>
+        <v>19083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02890447453731198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01353494307073301</v>
+        <v>0.01555050704631045</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04942213623250004</v>
+        <v>0.04940541428525091</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2068,19 +2068,19 @@
         <v>53762</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40853</v>
+        <v>41583</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69241</v>
+        <v>68604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05721307656594565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04347494969412757</v>
+        <v>0.04425212245833154</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07368518495294242</v>
+        <v>0.07300777173044161</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>943976</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>899238</v>
+        <v>898408</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>992689</v>
+        <v>986265</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4967386619168959</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4731963822693593</v>
+        <v>0.4727599377942517</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5223720187488318</v>
+        <v>0.5189916189001883</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>741</v>
@@ -2193,19 +2193,19 @@
         <v>776275</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>747704</v>
+        <v>745563</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>802836</v>
+        <v>801375</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7604971340380345</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7325065410821872</v>
+        <v>0.7304087894599911</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7865176798845834</v>
+        <v>0.7850871541295982</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1641</v>
@@ -2214,19 +2214,19 @@
         <v>1720252</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1670105</v>
+        <v>1666712</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1771598</v>
+        <v>1773674</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5889063935591169</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5717392156594593</v>
+        <v>0.5705777378185081</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6064842879296803</v>
+        <v>0.6071949904434687</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>447842</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>414811</v>
+        <v>409690</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>490268</v>
+        <v>487085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2356628895429793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2182818092883003</v>
+        <v>0.2155869405717809</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2579886097081493</v>
+        <v>0.2563136758891666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2264,19 +2264,19 @@
         <v>167437</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144273</v>
+        <v>143724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192343</v>
+        <v>191571</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1640335270747439</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1413408707737071</v>
+        <v>0.1408029932328898</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1884337098652975</v>
+        <v>0.1876776367643768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>589</v>
@@ -2285,19 +2285,19 @@
         <v>615278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>571826</v>
+        <v>571765</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>662064</v>
+        <v>660039</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2106327329584978</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1957573259525437</v>
+        <v>0.1957366639233367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2266492654377966</v>
+        <v>0.2259561123087039</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>374380</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>337425</v>
+        <v>339756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>410040</v>
+        <v>411768</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1970062667701694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1775597673277373</v>
+        <v>0.1787861267009364</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.215771143957104</v>
+        <v>0.2166801709328514</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2335,19 +2335,19 @@
         <v>53989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41254</v>
+        <v>41915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70703</v>
+        <v>71114</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05289157117794999</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04041547791024071</v>
+        <v>0.04106317987438281</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06926586217959946</v>
+        <v>0.06966811563771834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>413</v>
@@ -2356,19 +2356,19 @@
         <v>428369</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>393220</v>
+        <v>389490</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>467557</v>
+        <v>467815</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1466468433089068</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1346139843453077</v>
+        <v>0.1333369328744108</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1600623894651169</v>
+        <v>0.1601504385566302</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>134150</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>113397</v>
+        <v>114843</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>159600</v>
+        <v>160332</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07059218176995535</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05967183482090141</v>
+        <v>0.06043276387895635</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08398480182835795</v>
+        <v>0.08436989055856374</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2406,19 +2406,19 @@
         <v>23046</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15359</v>
+        <v>14987</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>33729</v>
+        <v>34923</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02257776770927151</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01504678721544702</v>
+        <v>0.01468222681263694</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03304296943919451</v>
+        <v>0.03421321077103583</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>152</v>
@@ -2427,19 +2427,19 @@
         <v>157196</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>133208</v>
+        <v>134095</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>184904</v>
+        <v>184213</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05381403017347845</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04560216163016923</v>
+        <v>0.04590558983338206</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06329963740233251</v>
+        <v>0.06306315166163218</v>
       </c>
     </row>
     <row r="28">
@@ -2771,19 +2771,19 @@
         <v>100730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83793</v>
+        <v>85004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117219</v>
+        <v>116678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3745471906681979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3115718556156101</v>
+        <v>0.3160734042137566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4358603417086916</v>
+        <v>0.4338492759834248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -2792,19 +2792,19 @@
         <v>94636</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81822</v>
+        <v>81392</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107558</v>
+        <v>108044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5868006303493124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5073467347231191</v>
+        <v>0.5046782278764458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6669201425159761</v>
+        <v>0.6699349930784028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -2813,19 +2813,19 @@
         <v>195366</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173037</v>
+        <v>174726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216357</v>
+        <v>217270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4541153962510459</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4022140791807192</v>
+        <v>0.4061389549907953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5029075754193744</v>
+        <v>0.5050298003489014</v>
       </c>
     </row>
     <row r="5">
@@ -2842,19 +2842,19 @@
         <v>89151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72631</v>
+        <v>72809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105362</v>
+        <v>104478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3314947213522017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2700654490921333</v>
+        <v>0.2707297460263757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3917710422010904</v>
+        <v>0.3884860083849066</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -2863,19 +2863,19 @@
         <v>55112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43502</v>
+        <v>42514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68327</v>
+        <v>68352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3417283845506307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2697353425103843</v>
+        <v>0.2636138994760203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.423667256308793</v>
+        <v>0.4238232770845803</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -2884,19 +2884,19 @@
         <v>144263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>124103</v>
+        <v>124220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164992</v>
+        <v>164058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3353310512531992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2884695514175146</v>
+        <v>0.2887424654140363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3835123407266498</v>
+        <v>0.3813415402629943</v>
       </c>
     </row>
     <row r="6">
@@ -2913,19 +2913,19 @@
         <v>52676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40230</v>
+        <v>41505</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67428</v>
+        <v>66857</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1958691885526877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1495890333854074</v>
+        <v>0.1543301423827559</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2507198036739954</v>
+        <v>0.2485970383726596</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2934,19 +2934,19 @@
         <v>10522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5157</v>
+        <v>5214</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18460</v>
+        <v>18245</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06524294648965208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0319791363368449</v>
+        <v>0.03233111678359175</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.114462148403799</v>
+        <v>0.1131279185788383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -2955,19 +2955,19 @@
         <v>63199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48625</v>
+        <v>49054</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78927</v>
+        <v>78061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1469008622979906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1130261779295155</v>
+        <v>0.1140239943442827</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1834598938298073</v>
+        <v>0.1814476164694033</v>
       </c>
     </row>
     <row r="7">
@@ -2984,19 +2984,19 @@
         <v>26380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17402</v>
+        <v>17528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38778</v>
+        <v>38321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09808889942691269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06470649626964368</v>
+        <v>0.06517681712703485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1441883516922427</v>
+        <v>0.1424898848519459</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5076</v>
+        <v>4810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006228038610404845</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03147697567559047</v>
+        <v>0.02982387996392243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3026,19 +3026,19 @@
         <v>27384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18165</v>
+        <v>18411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39937</v>
+        <v>39758</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0636526901977643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04222232790846578</v>
+        <v>0.0427955681317124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09283177233715513</v>
+        <v>0.09241415522585832</v>
       </c>
     </row>
     <row r="8">
@@ -3130,19 +3130,19 @@
         <v>191416</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168898</v>
+        <v>170531</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>211617</v>
+        <v>212855</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4672555074068528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4122880118660321</v>
+        <v>0.4162737281025454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5165653975056532</v>
+        <v>0.5195892154385775</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -3151,19 +3151,19 @@
         <v>156842</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>140876</v>
+        <v>138750</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>174815</v>
+        <v>173399</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5775606508656439</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5187648997347806</v>
+        <v>0.5109373034398625</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6437424456980778</v>
+        <v>0.6385299902121808</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>312</v>
@@ -3172,19 +3172,19 @@
         <v>348259</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>322485</v>
+        <v>319423</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>377415</v>
+        <v>373454</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5112272521897601</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4733925807426036</v>
+        <v>0.4688974155116195</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5540268422904823</v>
+        <v>0.5482112893625076</v>
       </c>
     </row>
     <row r="10">
@@ -3201,19 +3201,19 @@
         <v>121066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103184</v>
+        <v>102322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141455</v>
+        <v>140429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2955267231180078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2518755394710271</v>
+        <v>0.249773441573151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3452964984312205</v>
+        <v>0.3427930314210885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3222,19 +3222,19 @@
         <v>79631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63994</v>
+        <v>64988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95592</v>
+        <v>97126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.293236632723071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2356519279184637</v>
+        <v>0.2393126371834532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3520100434496815</v>
+        <v>0.3576606807065398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -3243,19 +3243,19 @@
         <v>200697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177669</v>
+        <v>178562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225852</v>
+        <v>226886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2946138076616803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2608099381530779</v>
+        <v>0.2621194129343589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3315398824252172</v>
+        <v>0.3330573881464894</v>
       </c>
     </row>
     <row r="11">
@@ -3272,19 +3272,19 @@
         <v>68746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54274</v>
+        <v>54443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85087</v>
+        <v>87289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1678114429130009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1324854120589212</v>
+        <v>0.1328983405708665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2077010822218219</v>
+        <v>0.2130772720806126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -3293,19 +3293,19 @@
         <v>23348</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15272</v>
+        <v>14607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34285</v>
+        <v>34377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08597784113063395</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05623629075516651</v>
+        <v>0.0537887685678191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1262518115540706</v>
+        <v>0.1265898574907931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -3314,19 +3314,19 @@
         <v>92094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75380</v>
+        <v>74867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110254</v>
+        <v>111972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1351895166871888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1106541294084881</v>
+        <v>0.1099012719803847</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1618477754653181</v>
+        <v>0.164369851685106</v>
       </c>
     </row>
     <row r="12">
@@ -3343,19 +3343,19 @@
         <v>28433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19039</v>
+        <v>18031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41168</v>
+        <v>40685</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06940632656213859</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04647531343093354</v>
+        <v>0.04401373186928392</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1004934708803567</v>
+        <v>0.09931299695215801</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3364,19 +3364,19 @@
         <v>11738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6230</v>
+        <v>6302</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20147</v>
+        <v>20526</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0432248752806512</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02294155121049089</v>
+        <v>0.0232074511517477</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07419162742078918</v>
+        <v>0.0755855120142442</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -3385,19 +3385,19 @@
         <v>40171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28295</v>
+        <v>29322</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54410</v>
+        <v>57221</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05896942346137087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04153518637832174</v>
+        <v>0.04304299714655865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07987070557817616</v>
+        <v>0.08399770361332146</v>
       </c>
     </row>
     <row r="13">
@@ -3489,19 +3489,19 @@
         <v>147136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>129866</v>
+        <v>130648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166277</v>
+        <v>166266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4591973085608575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4053004358822453</v>
+        <v>0.4077417930813755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5189348175046222</v>
+        <v>0.5189021986637044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -3510,19 +3510,19 @@
         <v>136150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120069</v>
+        <v>120633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151361</v>
+        <v>149984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6351980037680425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5601764673599702</v>
+        <v>0.56280427495142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7061635446119172</v>
+        <v>0.6997417285677422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>252</v>
@@ -3531,19 +3531,19 @@
         <v>283285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258554</v>
+        <v>258632</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307168</v>
+        <v>306602</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5297414888616844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.483494448494935</v>
+        <v>0.4836395385741385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5744032831601313</v>
+        <v>0.5733436832105101</v>
       </c>
     </row>
     <row r="15">
@@ -3560,19 +3560,19 @@
         <v>103753</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87309</v>
+        <v>85452</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122509</v>
+        <v>120647</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3238039785058427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2724848191926512</v>
+        <v>0.2666882082565868</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3823412890876996</v>
+        <v>0.3765280164130256</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -3581,19 +3581,19 @@
         <v>52030</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40091</v>
+        <v>40488</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66829</v>
+        <v>67985</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2427437977247957</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1870436425849854</v>
+        <v>0.1888962336764162</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3117879540548255</v>
+        <v>0.3171782157733919</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>143</v>
@@ -3602,19 +3602,19 @@
         <v>155783</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136180</v>
+        <v>134126</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>179015</v>
+        <v>178777</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2913136295245259</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2546560258368996</v>
+        <v>0.2508152687221326</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3347569324959047</v>
+        <v>0.334312506397962</v>
       </c>
     </row>
     <row r="16">
@@ -3631,19 +3631,19 @@
         <v>50498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37232</v>
+        <v>37775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64238</v>
+        <v>65345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1576007209921519</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1161976347336363</v>
+        <v>0.1178940670074281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2004820477207365</v>
+        <v>0.2039376250166857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3652,19 +3652,19 @@
         <v>16093</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9404</v>
+        <v>9624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26230</v>
+        <v>27268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07507992294026998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04387364454535947</v>
+        <v>0.04489881940169885</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1223739501151158</v>
+        <v>0.1272175437503157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -3673,19 +3673,19 @@
         <v>66591</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51184</v>
+        <v>52895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82635</v>
+        <v>84161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1245249308682136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09571462927759293</v>
+        <v>0.09891319182346095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1545261346566144</v>
+        <v>0.1573809778863137</v>
       </c>
     </row>
     <row r="17">
@@ -3702,19 +3702,19 @@
         <v>19032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11407</v>
+        <v>10628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32348</v>
+        <v>32458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05939799194114784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0356000084158219</v>
+        <v>0.03316839007132354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1009567370823707</v>
+        <v>0.1013000267437783</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3723,19 +3723,19 @@
         <v>10069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5748</v>
+        <v>4855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18083</v>
+        <v>17954</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04697827556689187</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02681495072957638</v>
+        <v>0.02265224429390111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08436678827348403</v>
+        <v>0.08376386885272825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -3744,19 +3744,19 @@
         <v>29102</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19147</v>
+        <v>19012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42254</v>
+        <v>41484</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05441995074557603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03580428161529699</v>
+        <v>0.03555142984077219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.079014753893326</v>
+        <v>0.0775749266707981</v>
       </c>
     </row>
     <row r="18">
@@ -3848,19 +3848,19 @@
         <v>191333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>169781</v>
+        <v>170168</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213936</v>
+        <v>213467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4603114740302346</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4084628084075691</v>
+        <v>0.4093941930219256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5146922189984965</v>
+        <v>0.5135623101554041</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -3869,19 +3869,19 @@
         <v>173561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>156085</v>
+        <v>155985</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>189612</v>
+        <v>190641</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5811227296622533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5226081638924736</v>
+        <v>0.5222754571601483</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6348659158105123</v>
+        <v>0.6383100948209717</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>348</v>
@@ -3890,19 +3890,19 @@
         <v>364893</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>336808</v>
+        <v>339264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390889</v>
+        <v>391399</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5108236947577337</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4715064404556911</v>
+        <v>0.4749452441981278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5472165098098756</v>
+        <v>0.5479301503233585</v>
       </c>
     </row>
     <row r="20">
@@ -3919,19 +3919,19 @@
         <v>114290</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94915</v>
+        <v>96843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133097</v>
+        <v>133596</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2749605685836499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2283494311638251</v>
+        <v>0.2329859180846606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3202061726993343</v>
+        <v>0.3214084051433079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -3940,19 +3940,19 @@
         <v>85940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71304</v>
+        <v>71864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102005</v>
+        <v>102776</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2877463279844162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2387427729095261</v>
+        <v>0.2406165170312886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3415375136053905</v>
+        <v>0.3441170085106261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>194</v>
@@ -3961,19 +3961,19 @@
         <v>200229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177780</v>
+        <v>177181</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226206</v>
+        <v>225213</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2803064040990705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2488787811675497</v>
+        <v>0.2480402161658937</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3166724678300616</v>
+        <v>0.3152812051383919</v>
       </c>
     </row>
     <row r="21">
@@ -3990,19 +3990,19 @@
         <v>79468</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>62988</v>
+        <v>65924</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95608</v>
+        <v>97164</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1911865349685068</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1515386247485251</v>
+        <v>0.158602325260233</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2300165717500882</v>
+        <v>0.2337584661030445</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -4011,19 +4011,19 @@
         <v>20343</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12625</v>
+        <v>13128</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32098</v>
+        <v>29493</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06811339618454121</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04227210241324481</v>
+        <v>0.04395463265102043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1074711281387293</v>
+        <v>0.09874970865550496</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>97</v>
@@ -4032,19 +4032,19 @@
         <v>99811</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>82500</v>
+        <v>83047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>119611</v>
+        <v>120709</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1397286015221618</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.115494265247107</v>
+        <v>0.1162593341673762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1674472201259976</v>
+        <v>0.1689832448291222</v>
       </c>
     </row>
     <row r="22">
@@ -4061,19 +4061,19 @@
         <v>30568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21086</v>
+        <v>20784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45294</v>
+        <v>44013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07354142241760861</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05072851824221531</v>
+        <v>0.050003509904716</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1089697781503722</v>
+        <v>0.1058867452536322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4082,19 +4082,19 @@
         <v>18821</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12618</v>
+        <v>12218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28572</v>
+        <v>28490</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06301754616878924</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04224928024828623</v>
+        <v>0.04090940153441892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09566445131958752</v>
+        <v>0.0953910035445998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -4103,19 +4103,19 @@
         <v>49389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37791</v>
+        <v>37495</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66322</v>
+        <v>64545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06914129962103399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05290427735390296</v>
+        <v>0.05249067501900142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0928460279911914</v>
+        <v>0.09035822604691736</v>
       </c>
     </row>
     <row r="23">
@@ -4207,19 +4207,19 @@
         <v>630614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>594178</v>
+        <v>594249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>675111</v>
+        <v>671467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4457657461658984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4200097418648993</v>
+        <v>0.4200604123848457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4772197716620163</v>
+        <v>0.4746436054820602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>513</v>
@@ -4228,19 +4228,19 @@
         <v>561189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>530620</v>
+        <v>529803</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>593396</v>
+        <v>593046</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5933224023746992</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5610031327132393</v>
+        <v>0.5601384952656574</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6273733487004776</v>
+        <v>0.627003327430224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1098</v>
@@ -4249,19 +4249,19 @@
         <v>1191803</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1135080</v>
+        <v>1144130</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1243902</v>
+        <v>1244105</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5048905883167782</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4808604536178677</v>
+        <v>0.4846943622838964</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5269616139336422</v>
+        <v>0.5270472869718784</v>
       </c>
     </row>
     <row r="25">
@@ -4278,19 +4278,19 @@
         <v>428260</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>393929</v>
+        <v>393039</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>465536</v>
+        <v>465229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3027263945391501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2784589046991437</v>
+        <v>0.2778294987218611</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3290757636588892</v>
+        <v>0.3288591397272772</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>253</v>
@@ -4299,19 +4299,19 @@
         <v>272714</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>244458</v>
+        <v>244665</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>299159</v>
+        <v>302265</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2883288864355022</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2584550828048418</v>
+        <v>0.2586741547300622</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3162888666578499</v>
+        <v>0.3195727380167058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>661</v>
@@ -4320,19 +4320,19 @@
         <v>700973</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>655648</v>
+        <v>654989</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>746707</v>
+        <v>747171</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2969574213469843</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.277755830610386</v>
+        <v>0.2774766864901975</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3163317280417049</v>
+        <v>0.3165285470550602</v>
       </c>
     </row>
     <row r="26">
@@ -4349,19 +4349,19 @@
         <v>251389</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>221120</v>
+        <v>224678</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>280497</v>
+        <v>281369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1777007138276626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1563044164740235</v>
+        <v>0.1588196440077887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1982766936655945</v>
+        <v>0.1988929391103537</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -4370,19 +4370,19 @@
         <v>70306</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54866</v>
+        <v>55836</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>89253</v>
+        <v>87442</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07433172858412321</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05800710436722127</v>
+        <v>0.05903355242576893</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09436334617298725</v>
+        <v>0.09244872534836104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>308</v>
@@ -4391,19 +4391,19 @@
         <v>321695</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>292602</v>
+        <v>289310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>358887</v>
+        <v>355170</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1362815390316945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1239567917020881</v>
+        <v>0.1225620240976078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.152037238942479</v>
+        <v>0.1504625261551145</v>
       </c>
     </row>
     <row r="27">
@@ -4420,19 +4420,19 @@
         <v>104413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>85384</v>
+        <v>84534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>127058</v>
+        <v>123907</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07380714546728889</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06035588566585625</v>
+        <v>0.05975483616467211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08981391917363997</v>
+        <v>0.08758675096761474</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>41</v>
@@ -4441,19 +4441,19 @@
         <v>41633</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>29955</v>
+        <v>30831</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>55570</v>
+        <v>56211</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04401698260567533</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03166970581711491</v>
+        <v>0.03259675964782519</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05875192883059829</v>
+        <v>0.05943007464674473</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>134</v>
@@ -4462,19 +4462,19 @@
         <v>146046</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>121795</v>
+        <v>122772</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>172359</v>
+        <v>173246</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06187045130454295</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05159679464624685</v>
+        <v>0.05201069227997419</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07301745993696061</v>
+        <v>0.0733933828287915</v>
       </c>
     </row>
     <row r="28">
@@ -4806,19 +4806,19 @@
         <v>126097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110255</v>
+        <v>109183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141427</v>
+        <v>141659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5293001980613536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4628033376110477</v>
+        <v>0.4583001373557465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.593648916531932</v>
+        <v>0.5946229073315638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -4827,19 +4827,19 @@
         <v>104905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93153</v>
+        <v>93016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117198</v>
+        <v>116923</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6419921375696427</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5700717696597828</v>
+        <v>0.5692307838528528</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7172199791517455</v>
+        <v>0.715536590220083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -4848,19 +4848,19 @@
         <v>231002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210527</v>
+        <v>212076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250443</v>
+        <v>250860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5751485093444525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5241688746429616</v>
+        <v>0.5280253195443407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6235531415341291</v>
+        <v>0.6245907418713897</v>
       </c>
     </row>
     <row r="5">
@@ -4877,19 +4877,19 @@
         <v>75635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62537</v>
+        <v>62700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90789</v>
+        <v>91347</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3174816198999382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2625038811212579</v>
+        <v>0.2631854741820449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3810906527322269</v>
+        <v>0.3834330395801683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -4898,19 +4898,19 @@
         <v>42821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32454</v>
+        <v>32908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53443</v>
+        <v>55169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2620500275998371</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1986093235093564</v>
+        <v>0.2013899597093467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3270557037885086</v>
+        <v>0.3376201381562929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -4919,19 +4919,19 @@
         <v>118455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100902</v>
+        <v>102189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138453</v>
+        <v>137392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2949294754450464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2512268108297178</v>
+        <v>0.2544299108465732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3447206266634615</v>
+        <v>0.3420780094380618</v>
       </c>
     </row>
     <row r="6">
@@ -4948,19 +4948,19 @@
         <v>22578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14460</v>
+        <v>15500</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33290</v>
+        <v>33819</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09477328327477474</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06069521169790509</v>
+        <v>0.06506000999654535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1397379755950453</v>
+        <v>0.1419549809668108</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4969,19 +4969,19 @@
         <v>7520</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2976</v>
+        <v>3089</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13579</v>
+        <v>15051</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04601742787778653</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01821066683862156</v>
+        <v>0.01890369575519784</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08310226369380434</v>
+        <v>0.09210959393331777</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -4990,19 +4990,19 @@
         <v>30098</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20911</v>
+        <v>20866</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42584</v>
+        <v>40916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07493713842831527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05206297114274438</v>
+        <v>0.05195246501573292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1060256481564171</v>
+        <v>0.1018718846370731</v>
       </c>
     </row>
     <row r="7">
@@ -5019,19 +5019,19 @@
         <v>13924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7342</v>
+        <v>7423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23243</v>
+        <v>22872</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05844489876393341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03081789374749383</v>
+        <v>0.03115716085090752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09756335145419878</v>
+        <v>0.09600533686937383</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -5040,19 +5040,19 @@
         <v>8161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3304</v>
+        <v>3322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15545</v>
+        <v>15283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04994040695273362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02021947549434761</v>
+        <v>0.02032794131205522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0951287320732066</v>
+        <v>0.0935271948092775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5061,19 +5061,19 @@
         <v>22084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13573</v>
+        <v>13639</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32140</v>
+        <v>33325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05498487678218579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0337936430365917</v>
+        <v>0.03395848560652669</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08002300020025294</v>
+        <v>0.08297326450954623</v>
       </c>
     </row>
     <row r="8">
@@ -5165,19 +5165,19 @@
         <v>169062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149033</v>
+        <v>146628</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>190521</v>
+        <v>187413</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4165227483014858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3671768775673008</v>
+        <v>0.3612515287933466</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4693916260569665</v>
+        <v>0.461734517116648</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>148</v>
@@ -5186,19 +5186,19 @@
         <v>154437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138557</v>
+        <v>137440</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169612</v>
+        <v>169619</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5681742845381795</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.509751670760811</v>
+        <v>0.5056430597834024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6240033325727583</v>
+        <v>0.6240292716295938</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>299</v>
@@ -5207,19 +5207,19 @@
         <v>323499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>295890</v>
+        <v>296660</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>349596</v>
+        <v>351312</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4773471029330225</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4366089524803879</v>
+        <v>0.4377453898403079</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5158561625461305</v>
+        <v>0.5183879890069915</v>
       </c>
     </row>
     <row r="10">
@@ -5236,19 +5236,19 @@
         <v>134194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114384</v>
+        <v>115690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154989</v>
+        <v>157462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3306178141132599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2818107470159659</v>
+        <v>0.2850280167239566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3818513473337354</v>
+        <v>0.3879443006035938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -5257,19 +5257,19 @@
         <v>76207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62287</v>
+        <v>62688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90723</v>
+        <v>91098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2803666735545465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2291530063762276</v>
+        <v>0.2306300242588997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3337701134281126</v>
+        <v>0.3351494749253335</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -5278,19 +5278,19 @@
         <v>210401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186332</v>
+        <v>186365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>235308</v>
+        <v>237003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3104631010794803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2749474058065277</v>
+        <v>0.2749964571537274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3472155179674905</v>
+        <v>0.3497157044735347</v>
       </c>
     </row>
     <row r="11">
@@ -5307,19 +5307,19 @@
         <v>73878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59195</v>
+        <v>59379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>89711</v>
+        <v>93006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1820162885135722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.145841115338352</v>
+        <v>0.1462948551405425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2210234503497618</v>
+        <v>0.2291406329147984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5328,19 +5328,19 @@
         <v>26351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17963</v>
+        <v>18466</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37991</v>
+        <v>38553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09694471132432587</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06608737721647641</v>
+        <v>0.06793833252912578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.139771152296336</v>
+        <v>0.1418365762783141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>93</v>
@@ -5349,19 +5349,19 @@
         <v>100229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83816</v>
+        <v>82270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120261</v>
+        <v>121394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1478958047490902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1236763354659139</v>
+        <v>0.1213963411617735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1774550014801548</v>
+        <v>0.1791259122573327</v>
       </c>
     </row>
     <row r="12">
@@ -5378,19 +5378,19 @@
         <v>28754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19071</v>
+        <v>18744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41083</v>
+        <v>40664</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0708431490716821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04698696071619566</v>
+        <v>0.04617982682376356</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1012163982996839</v>
+        <v>0.1001843791871747</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -5399,19 +5399,19 @@
         <v>14818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8326</v>
+        <v>8636</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23281</v>
+        <v>23960</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05451433058294813</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03063072611692563</v>
+        <v>0.03177109629275746</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08565234325580896</v>
+        <v>0.08814779279710135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -5420,19 +5420,19 @@
         <v>43572</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31723</v>
+        <v>32458</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58651</v>
+        <v>57794</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06429399123840698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04680904121697679</v>
+        <v>0.04789381629783557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08654339497752954</v>
+        <v>0.08527879798329034</v>
       </c>
     </row>
     <row r="13">
@@ -5524,19 +5524,19 @@
         <v>100339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83532</v>
+        <v>83374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118970</v>
+        <v>118982</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.278279071045211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2316663545652475</v>
+        <v>0.2312276449191093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.329949359787731</v>
+        <v>0.329982773162708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -5545,19 +5545,19 @@
         <v>98940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83622</v>
+        <v>82978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115773</v>
+        <v>113507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3670909056777746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.310256630815617</v>
+        <v>0.3078697183628358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4295479927254698</v>
+        <v>0.4211386428364763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>187</v>
@@ -5566,19 +5566,19 @@
         <v>199279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>176362</v>
+        <v>176658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224911</v>
+        <v>225112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3162684964290667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2798983035566354</v>
+        <v>0.2803677616742167</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3569482426449379</v>
+        <v>0.3572675374184875</v>
       </c>
     </row>
     <row r="15">
@@ -5595,19 +5595,19 @@
         <v>146400</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125645</v>
+        <v>127125</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>165847</v>
+        <v>166734</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4060242610097042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3484625357544671</v>
+        <v>0.3525670307830699</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4599587263326672</v>
+        <v>0.4624177101134972</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>104</v>
@@ -5616,19 +5616,19 @@
         <v>107308</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>90708</v>
+        <v>91235</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>123781</v>
+        <v>122344</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3981370885655611</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.336549200776159</v>
+        <v>0.3385054032777368</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4592563806071027</v>
+        <v>0.4539279927751144</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>235</v>
@@ -5637,19 +5637,19 @@
         <v>253708</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>231034</v>
+        <v>226657</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>277901</v>
+        <v>277303</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.402650508510434</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3666656317128414</v>
+        <v>0.3597194626663006</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4410465329437214</v>
+        <v>0.4400980575863628</v>
       </c>
     </row>
     <row r="16">
@@ -5666,19 +5666,19 @@
         <v>75191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60399</v>
+        <v>60165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91414</v>
+        <v>92204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2085328611047956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1675087129852818</v>
+        <v>0.1668604124200758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2535255139773823</v>
+        <v>0.2557183764474434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5687,19 +5687,19 @@
         <v>48867</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37107</v>
+        <v>37235</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62137</v>
+        <v>62905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1813077393165402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1376742423065122</v>
+        <v>0.1381495423810881</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2305428316975736</v>
+        <v>0.2333931908686037</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -5708,19 +5708,19 @@
         <v>124057</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105008</v>
+        <v>103281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146190</v>
+        <v>145170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1968872652557702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1666549019147361</v>
+        <v>0.163913544069827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.23201282534835</v>
+        <v>0.2303937936845552</v>
       </c>
     </row>
     <row r="17">
@@ -5737,19 +5737,19 @@
         <v>38640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27542</v>
+        <v>26902</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52265</v>
+        <v>52333</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1071638068402892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07638402181854057</v>
+        <v>0.07460862457773605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1449516387914409</v>
+        <v>0.1451400761643652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5758,19 +5758,19 @@
         <v>14410</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8659</v>
+        <v>7979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24126</v>
+        <v>23457</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05346426644012416</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03212531813194187</v>
+        <v>0.02960457702766759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08951415170042876</v>
+        <v>0.08703204994961303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -5779,19 +5779,19 @@
         <v>53050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39545</v>
+        <v>39062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68075</v>
+        <v>69063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08419372980472906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06276074354180064</v>
+        <v>0.06199439727242106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1080392004375597</v>
+        <v>0.1096077340358083</v>
       </c>
     </row>
     <row r="18">
@@ -5883,19 +5883,19 @@
         <v>189774</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>172196</v>
+        <v>168642</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>211142</v>
+        <v>209635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4779553067912543</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4336862979704772</v>
+        <v>0.4247339005370084</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5317724763460521</v>
+        <v>0.5279765864886672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -5904,19 +5904,19 @@
         <v>198824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>181520</v>
+        <v>181124</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217183</v>
+        <v>215049</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6148373336721337</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5613294269174876</v>
+        <v>0.5601039490286528</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.671612236664938</v>
+        <v>0.6650128124918502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -5925,19 +5925,19 @@
         <v>388597</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>361546</v>
+        <v>361285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>414406</v>
+        <v>417877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5393969893412137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5018486852413472</v>
+        <v>0.5014857651614661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5752208044780694</v>
+        <v>0.5800386474944971</v>
       </c>
     </row>
     <row r="20">
@@ -5954,19 +5954,19 @@
         <v>119769</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102332</v>
+        <v>102550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137895</v>
+        <v>139201</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3016457588025245</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2577291630686454</v>
+        <v>0.2582783792266645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3472968819057131</v>
+        <v>0.3505861423754089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -5975,19 +5975,19 @@
         <v>80804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65929</v>
+        <v>65194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99266</v>
+        <v>96464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2498760840566738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2038768276643534</v>
+        <v>0.2016034664414057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3069674829050483</v>
+        <v>0.2983013715259559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -5996,19 +5996,19 @@
         <v>200573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>178301</v>
+        <v>173355</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226789</v>
+        <v>225900</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2784081139931202</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2474925797977126</v>
+        <v>0.2406270692653654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3147970856925909</v>
+        <v>0.3135629643452579</v>
       </c>
     </row>
     <row r="21">
@@ -6025,19 +6025,19 @@
         <v>63823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50946</v>
+        <v>49753</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81733</v>
+        <v>79401</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1607407407006596</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1283109965591363</v>
+        <v>0.1253049840036674</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.205850046864699</v>
+        <v>0.1999764503320473</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -6046,19 +6046,19 @@
         <v>30710</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20936</v>
+        <v>21333</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42677</v>
+        <v>42386</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.094967691627735</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0647430787961651</v>
+        <v>0.0659689464420771</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1319720459870143</v>
+        <v>0.1310746576780294</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>92</v>
@@ -6067,19 +6067,19 @@
         <v>94533</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>78549</v>
+        <v>76287</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>115269</v>
+        <v>114405</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1312174578156219</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1090303774421194</v>
+        <v>0.105891061821245</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1600011421527702</v>
+        <v>0.1588012898697488</v>
       </c>
     </row>
     <row r="22">
@@ -6096,19 +6096,19 @@
         <v>23687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15431</v>
+        <v>15551</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34857</v>
+        <v>34690</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0596581937055617</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03886268031623336</v>
+        <v>0.03916701347099747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08778839448879151</v>
+        <v>0.08736813437313523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6117,19 +6117,19 @@
         <v>13038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6942</v>
+        <v>6614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22703</v>
+        <v>22094</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04031889064345755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02146754704933433</v>
+        <v>0.02045311393038471</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07020602674639168</v>
+        <v>0.0683236803752513</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -6138,19 +6138,19 @@
         <v>36726</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25144</v>
+        <v>25235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49485</v>
+        <v>52368</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05097743885004426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03490196398810547</v>
+        <v>0.03502824610072336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06868759074738826</v>
+        <v>0.07268944395164888</v>
       </c>
     </row>
     <row r="23">
@@ -6242,19 +6242,19 @@
         <v>585272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>549485</v>
+        <v>547906</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>622071</v>
+        <v>623708</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.417530637697771</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3920001204871518</v>
+        <v>0.3908737414938689</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4437832067354051</v>
+        <v>0.4449507454398357</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>542</v>
@@ -6263,19 +6263,19 @@
         <v>557105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>526945</v>
+        <v>526161</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>590373</v>
+        <v>590420</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5418690741641732</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5125337514987618</v>
+        <v>0.5117710787778389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5742273321271718</v>
+        <v>0.5742726058282267</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1086</v>
@@ -6284,19 +6284,19 @@
         <v>1142377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1091415</v>
+        <v>1094253</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1193571</v>
+        <v>1190251</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4701403993470595</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4491669988242125</v>
+        <v>0.4503351643501959</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4912089323978271</v>
+        <v>0.4898428216335377</v>
       </c>
     </row>
     <row r="25">
@@ -6313,19 +6313,19 @@
         <v>475999</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>439432</v>
+        <v>439824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>513104</v>
+        <v>513462</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3395755064455065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3134887759599129</v>
+        <v>0.3137683401254407</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3660460120910844</v>
+        <v>0.3663019586095897</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -6334,19 +6334,19 @@
         <v>307139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276962</v>
+        <v>277415</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>337204</v>
+        <v>335885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2987390786909366</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2693870931817952</v>
+        <v>0.2698275059568305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3279817563198114</v>
+        <v>0.3266986535190681</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>746</v>
@@ -6355,19 +6355,19 @@
         <v>783138</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>736308</v>
+        <v>740245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>827432</v>
+        <v>831041</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3222969014394284</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3030245343411883</v>
+        <v>0.3046445748126622</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3405260281890846</v>
+        <v>0.342011374977448</v>
       </c>
     </row>
     <row r="26">
@@ -6384,19 +6384,19 @@
         <v>235470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>209225</v>
+        <v>204927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>265502</v>
+        <v>264518</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1679833132451104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1492604208626355</v>
+        <v>0.1461937756402593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1894083643638338</v>
+        <v>0.1887061975389904</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -6405,19 +6405,19 @@
         <v>113447</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95390</v>
+        <v>95656</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136966</v>
+        <v>134922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1103446793695541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09278090400558484</v>
+        <v>0.09304013681537995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1332196493706145</v>
+        <v>0.131232412421419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>332</v>
@@ -6426,19 +6426,19 @@
         <v>348917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>309400</v>
+        <v>315915</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>382633</v>
+        <v>386146</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1435954017017398</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1273323074237912</v>
+        <v>0.1300133456588267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1574708884312047</v>
+        <v>0.1589166495596885</v>
       </c>
     </row>
     <row r="27">
@@ -6455,19 +6455,19 @@
         <v>105006</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>86846</v>
+        <v>84930</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>126341</v>
+        <v>126199</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07491054261161202</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.061955695903619</v>
+        <v>0.06058907024999278</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09013097863411057</v>
+        <v>0.09002988009466317</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -6476,19 +6476,19 @@
         <v>50426</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37813</v>
+        <v>37921</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>66805</v>
+        <v>66009</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04904716777533612</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03677873325395802</v>
+        <v>0.03688408386313512</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06497762977351793</v>
+        <v>0.0642033386238013</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>144</v>
@@ -6497,19 +6497,19 @@
         <v>155432</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>131805</v>
+        <v>131300</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>180012</v>
+        <v>181713</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06396729751177235</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0542438947013109</v>
+        <v>0.05403586294209897</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07408311863354888</v>
+        <v>0.07478324776318016</v>
       </c>
     </row>
     <row r="28">
@@ -6841,19 +6841,19 @@
         <v>73732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57881</v>
+        <v>58827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93647</v>
+        <v>91236</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.382003033946525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2998787645255535</v>
+        <v>0.3047796679784735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.485180893356842</v>
+        <v>0.4726898788587317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -6862,19 +6862,19 @@
         <v>74631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64362</v>
+        <v>63901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85351</v>
+        <v>84903</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5463220810177251</v>
+        <v>0.5463220810177249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.471147828393944</v>
+        <v>0.4677739127546392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6247973164218786</v>
+        <v>0.6215143224976135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -6883,19 +6883,19 @@
         <v>148362</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128353</v>
+        <v>129023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>167372</v>
+        <v>167934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4501025992453568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3893971845603512</v>
+        <v>0.3914308987891832</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5077738038805121</v>
+        <v>0.5094804665746676</v>
       </c>
     </row>
     <row r="5">
@@ -6912,19 +6912,19 @@
         <v>92789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75837</v>
+        <v>76293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>107951</v>
+        <v>108674</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4807385662674247</v>
+        <v>0.4807385662674248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3929097584436469</v>
+        <v>0.3952702907822845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5592923027529446</v>
+        <v>0.5630361452000604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -6933,19 +6933,19 @@
         <v>53134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42620</v>
+        <v>42572</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63476</v>
+        <v>63042</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3889603863846612</v>
+        <v>0.3889603863846611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3119907927857274</v>
+        <v>0.3116427253441094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4646644970138047</v>
+        <v>0.4614881534734729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -6954,19 +6954,19 @@
         <v>145923</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127612</v>
+        <v>128359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165551</v>
+        <v>164860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4427024757147208</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3871510267634988</v>
+        <v>0.3894163027174103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.502248689213322</v>
+        <v>0.500153477731733</v>
       </c>
     </row>
     <row r="6">
@@ -6983,19 +6983,19 @@
         <v>22012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13424</v>
+        <v>13116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32786</v>
+        <v>33722</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1140445132942332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06955149791459035</v>
+        <v>0.06795513315729981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1698632880405238</v>
+        <v>0.1747120401106372</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7004,19 +7004,19 @@
         <v>5580</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2090</v>
+        <v>2239</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14563</v>
+        <v>13598</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04085022619267044</v>
+        <v>0.04085022619267043</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01529783770282923</v>
+        <v>0.01638817636053587</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1066028783376465</v>
+        <v>0.0995418781533078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -7025,19 +7025,19 @@
         <v>27592</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18382</v>
+        <v>17904</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39858</v>
+        <v>39367</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08371023846232942</v>
+        <v>0.08371023846232943</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05576829281597813</v>
+        <v>0.05431694832925893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1209206423626103</v>
+        <v>0.1194324941606553</v>
       </c>
     </row>
     <row r="7">
@@ -7054,19 +7054,19 @@
         <v>4481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13545</v>
+        <v>14064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02321388649181707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004128936000644139</v>
+        <v>0.004245940123908665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0701757393509794</v>
+        <v>0.07286383208309449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7075,19 +7075,19 @@
         <v>3260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7820</v>
+        <v>7510</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02386730640494333</v>
+        <v>0.02386730640494332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006141155981065874</v>
+        <v>0.006339144953410226</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05724483701695775</v>
+        <v>0.05497908529616027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -7096,19 +7096,19 @@
         <v>7741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3238</v>
+        <v>3307</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16512</v>
+        <v>16004</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.023484686577593</v>
+        <v>0.02348468657759299</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009824034138303408</v>
+        <v>0.01003246022199369</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05009321321572931</v>
+        <v>0.04855154959906056</v>
       </c>
     </row>
     <row r="8">
@@ -7200,19 +7200,19 @@
         <v>112671</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94437</v>
+        <v>95235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>132259</v>
+        <v>133694</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3409759664256059</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2857945121781446</v>
+        <v>0.2882078778109812</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4002526586746695</v>
+        <v>0.4045956635638122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -7221,19 +7221,19 @@
         <v>104089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>92361</v>
+        <v>90343</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117649</v>
+        <v>115842</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4790406063181313</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4250644507032456</v>
+        <v>0.4157757156878732</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5414468531723776</v>
+        <v>0.5331277779129066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>222</v>
@@ -7242,19 +7242,19 @@
         <v>216760</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>193472</v>
+        <v>192046</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>242873</v>
+        <v>238279</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.395747315725245</v>
+        <v>0.3957473157252451</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3532285974590987</v>
+        <v>0.3506258589441319</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4434221934634318</v>
+        <v>0.4350343143363425</v>
       </c>
     </row>
     <row r="10">
@@ -7271,19 +7271,19 @@
         <v>152134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132091</v>
+        <v>131045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>171096</v>
+        <v>171169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4603999578214004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3997441270657258</v>
+        <v>0.3965799187904593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5177856504961849</v>
+        <v>0.518006194689593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -7292,19 +7292,19 @@
         <v>83683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72303</v>
+        <v>70625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94961</v>
+        <v>96606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3851260542550931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3327545346889986</v>
+        <v>0.3250328558391337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4370283964779708</v>
+        <v>0.4445995667548763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -7313,19 +7313,19 @@
         <v>235816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210223</v>
+        <v>215030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260015</v>
+        <v>260755</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4305381969202243</v>
+        <v>0.4305381969202242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3838122769168133</v>
+        <v>0.3925874911214006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4747183479762866</v>
+        <v>0.4760692715494788</v>
       </c>
     </row>
     <row r="11">
@@ -7342,19 +7342,19 @@
         <v>46446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34138</v>
+        <v>33310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63746</v>
+        <v>62304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1405584529739824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1033111897348142</v>
+        <v>0.1008066614539629</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1929147511939938</v>
+        <v>0.1885510232713275</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -7363,19 +7363,19 @@
         <v>23050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15730</v>
+        <v>16092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32502</v>
+        <v>33299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1060795542802004</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07239456041881645</v>
+        <v>0.0740576730471504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1495813769864144</v>
+        <v>0.1532484316012978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -7384,19 +7384,19 @@
         <v>69495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54659</v>
+        <v>54166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88573</v>
+        <v>87733</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1268803974972575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09979219168565466</v>
+        <v>0.09889310090336582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1617115098885659</v>
+        <v>0.1601772017737158</v>
       </c>
     </row>
     <row r="12">
@@ -7413,19 +7413,19 @@
         <v>19187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10595</v>
+        <v>10352</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33820</v>
+        <v>31765</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05806562277901146</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03206241054330002</v>
+        <v>0.03132873075919528</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1023477219859129</v>
+        <v>0.09612919230636373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -7434,19 +7434,19 @@
         <v>6465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3210</v>
+        <v>3177</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12472</v>
+        <v>12094</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02975378514657519</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01477241665818757</v>
+        <v>0.01462230481654042</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0573972906909645</v>
+        <v>0.05565716669461326</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -7455,19 +7455,19 @@
         <v>25652</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15862</v>
+        <v>15952</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38973</v>
+        <v>40414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04683408985727319</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02896034071393237</v>
+        <v>0.02912451504824359</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07115523776098411</v>
+        <v>0.07378503386388113</v>
       </c>
     </row>
     <row r="13">
@@ -7559,19 +7559,19 @@
         <v>88267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72027</v>
+        <v>70334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105039</v>
+        <v>104140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4396888244883211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3587932799844641</v>
+        <v>0.3503563787115182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.523237361096022</v>
+        <v>0.5187575463184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -7580,19 +7580,19 @@
         <v>87148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76031</v>
+        <v>76302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98878</v>
+        <v>98094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5711522306888837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.498293522464808</v>
+        <v>0.5000687640009184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6480263519449672</v>
+        <v>0.6428905036330977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>180</v>
@@ -7601,19 +7601,19 @@
         <v>175415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155946</v>
+        <v>156341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>195086</v>
+        <v>197588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4964599230500619</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4413595805849745</v>
+        <v>0.4424763359774193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5521329788603774</v>
+        <v>0.5592142162744143</v>
       </c>
     </row>
     <row r="15">
@@ -7630,19 +7630,19 @@
         <v>77698</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>62315</v>
+        <v>62963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>92992</v>
+        <v>96029</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3870383623988679</v>
+        <v>0.387038362398868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3104123907356799</v>
+        <v>0.3136390228142248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4632260054792143</v>
+        <v>0.4783524816112224</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -7651,19 +7651,19 @@
         <v>51218</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41144</v>
+        <v>40505</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62384</v>
+        <v>61689</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3356741480089304</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2696499469089595</v>
+        <v>0.265458899738701</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4088523710980738</v>
+        <v>0.404297553363803</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>124</v>
@@ -7672,19 +7672,19 @@
         <v>128916</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>111518</v>
+        <v>109010</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>149710</v>
+        <v>147098</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.364857263019556</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3156189284318116</v>
+        <v>0.3085203086675841</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4237079086836782</v>
+        <v>0.4163167744992474</v>
       </c>
     </row>
     <row r="16">
@@ -7701,19 +7701,19 @@
         <v>19109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10998</v>
+        <v>10557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31839</v>
+        <v>32835</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09518934851918366</v>
+        <v>0.09518934851918368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05478304623933011</v>
+        <v>0.0525882262563005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1585998177280217</v>
+        <v>0.1635606005561693</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -7722,19 +7722,19 @@
         <v>5137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2098</v>
+        <v>2434</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9933</v>
+        <v>10122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03366674392704713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01375215684455405</v>
+        <v>0.01595380933252014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06510012633437247</v>
+        <v>0.06633681706684363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -7743,19 +7743,19 @@
         <v>24246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15331</v>
+        <v>15478</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36332</v>
+        <v>36417</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06862145445635474</v>
+        <v>0.06862145445635473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04338851273572545</v>
+        <v>0.04380625636800833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1028258434781648</v>
+        <v>0.1030678587304456</v>
       </c>
     </row>
     <row r="17">
@@ -7772,19 +7772,19 @@
         <v>15675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8531</v>
+        <v>8166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28007</v>
+        <v>26993</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07808346459362724</v>
+        <v>0.07808346459362725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04249715920915938</v>
+        <v>0.04067810440164511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1395119868776406</v>
+        <v>0.1344636534067248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -7793,19 +7793,19 @@
         <v>9080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4810</v>
+        <v>4237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16356</v>
+        <v>16336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0595068773751388</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03152076668393567</v>
+        <v>0.0277653861996975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1071967748176616</v>
+        <v>0.1070646519432152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -7814,19 +7814,19 @@
         <v>24755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15687</v>
+        <v>15885</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38453</v>
+        <v>38516</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07006135947402728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04439781914473509</v>
+        <v>0.04495849264801357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1088295310276536</v>
+        <v>0.109009045393631</v>
       </c>
     </row>
     <row r="18">
@@ -7918,19 +7918,19 @@
         <v>137501</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121337</v>
+        <v>121189</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153787</v>
+        <v>154119</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5616484660287165</v>
+        <v>0.5616484660287163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4956231414981085</v>
+        <v>0.495017833581771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6281727128542329</v>
+        <v>0.6295278588579725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -7939,19 +7939,19 @@
         <v>114508</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101450</v>
+        <v>100393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126803</v>
+        <v>125654</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5589879508425046</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4952450822818109</v>
+        <v>0.4900849161695873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6190119501723953</v>
+        <v>0.613399753506183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -7960,19 +7960,19 @@
         <v>252009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>230892</v>
+        <v>231306</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273551</v>
+        <v>272604</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5604364501608525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.513475715289605</v>
+        <v>0.5143971686376678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6083450367739839</v>
+        <v>0.6062373295287867</v>
       </c>
     </row>
     <row r="20">
@@ -7989,19 +7989,19 @@
         <v>74434</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61010</v>
+        <v>61620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91774</v>
+        <v>91533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3040376962358071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2492066860896959</v>
+        <v>0.2516962342636436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3748675385479589</v>
+        <v>0.3738845556913011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -8010,19 +8010,19 @@
         <v>61104</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50397</v>
+        <v>50396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74037</v>
+        <v>75455</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2982890266793116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.246019948056954</v>
+        <v>0.2460152013666791</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3614236619459379</v>
+        <v>0.3683476253142688</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>151</v>
@@ -8031,19 +8031,19 @@
         <v>135538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>117053</v>
+        <v>118041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155977</v>
+        <v>157130</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3014188505484427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2603121335754248</v>
+        <v>0.2625086222604997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3468729509294684</v>
+        <v>0.3494381766024814</v>
       </c>
     </row>
     <row r="21">
@@ -8060,19 +8060,19 @@
         <v>21390</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13345</v>
+        <v>13118</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32439</v>
+        <v>32738</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08737272699775862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05451197235893541</v>
+        <v>0.05358171701634524</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1325022970994396</v>
+        <v>0.1337230854794402</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -8081,19 +8081,19 @@
         <v>13940</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8172</v>
+        <v>8829</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21934</v>
+        <v>22790</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06804802234655769</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03989422621378642</v>
+        <v>0.04309936015400982</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1070733462784962</v>
+        <v>0.1112541160800131</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -8102,19 +8102,19 @@
         <v>35330</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25435</v>
+        <v>26623</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48246</v>
+        <v>48731</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0785692257809936</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05656391307993452</v>
+        <v>0.05920642521261761</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1072926449372564</v>
+        <v>0.1083718971929609</v>
       </c>
     </row>
     <row r="22">
@@ -8131,19 +8131,19 @@
         <v>11492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5652</v>
+        <v>5656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21744</v>
+        <v>22726</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04694111073771798</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0230879941487187</v>
+        <v>0.02310215889703848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08881815346394911</v>
+        <v>0.09282830629195295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -8152,19 +8152,19 @@
         <v>15297</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9464</v>
+        <v>8694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24277</v>
+        <v>24591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07467500013162615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04619772192173584</v>
+        <v>0.04243935412574514</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.118513472614642</v>
+        <v>0.1200446114003157</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -8173,19 +8173,19 @@
         <v>26789</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17375</v>
+        <v>17249</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39698</v>
+        <v>39898</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0595754735097112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03864081198866491</v>
+        <v>0.03836031938866931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08828248780448592</v>
+        <v>0.08872899731623569</v>
       </c>
     </row>
     <row r="23">
@@ -8277,19 +8277,19 @@
         <v>412172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>376340</v>
+        <v>375677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>445936</v>
+        <v>447002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4253498030363782</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3883729496642838</v>
+        <v>0.3876885710360143</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4601937666420889</v>
+        <v>0.4612937071886409</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>493</v>
@@ -8298,19 +8298,19 @@
         <v>380375</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>355418</v>
+        <v>354132</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>403288</v>
+        <v>405961</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5347434643645794</v>
+        <v>0.5347434643645793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4996570273548837</v>
+        <v>0.4978504596104325</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5669545731101733</v>
+        <v>0.5707124736946578</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>831</v>
@@ -8319,19 +8319,19 @@
         <v>792547</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>751895</v>
+        <v>750814</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>832537</v>
+        <v>832773</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4716584135427034</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4474654558908148</v>
+        <v>0.4468224661801184</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4954571489035758</v>
+        <v>0.4955976206034753</v>
       </c>
     </row>
     <row r="25">
@@ -8348,19 +8348,19 @@
         <v>397054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>361770</v>
+        <v>361429</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>431443</v>
+        <v>430991</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4097488380025988</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3733369079296271</v>
+        <v>0.3729843555594224</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4452373433881602</v>
+        <v>0.4447711165092438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>353</v>
@@ -8369,19 +8369,19 @@
         <v>249139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227166</v>
+        <v>226725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273710</v>
+        <v>272570</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3502472351268971</v>
+        <v>0.350247235126897</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3193575529685405</v>
+        <v>0.3187365368774187</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3847902076914768</v>
+        <v>0.3831873463266167</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>708</v>
@@ -8390,19 +8390,19 @@
         <v>646193</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>605757</v>
+        <v>607190</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>685226</v>
+        <v>684608</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3845605728086393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3604963760539195</v>
+        <v>0.3613491134487274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4077901323127316</v>
+        <v>0.4074220752446349</v>
       </c>
     </row>
     <row r="26">
@@ -8419,19 +8419,19 @@
         <v>108958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88940</v>
+        <v>87826</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>135226</v>
+        <v>133357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1124411735598534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09178373177362122</v>
+        <v>0.090633889217896</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1395498772072952</v>
+        <v>0.1376212260876972</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -8440,19 +8440,19 @@
         <v>47707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36249</v>
+        <v>36361</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61364</v>
+        <v>62120</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06706729251907424</v>
+        <v>0.06706729251907423</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05095977641708824</v>
+        <v>0.05111720994557524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08626768545807167</v>
+        <v>0.08732986889688636</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>148</v>
@@ -8461,19 +8461,19 @@
         <v>156664</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130691</v>
+        <v>134107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>182150</v>
+        <v>184919</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09323346665283443</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07777676264823191</v>
+        <v>0.07980930975980309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1084005507276772</v>
+        <v>0.1100484774986562</v>
       </c>
     </row>
     <row r="27">
@@ -8490,19 +8490,19 @@
         <v>50835</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>36175</v>
+        <v>36505</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70757</v>
+        <v>71581</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05246018540116977</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0373315792074057</v>
+        <v>0.03767178800529227</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07301978767192673</v>
+        <v>0.0738695985537032</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>40</v>
@@ -8511,19 +8511,19 @@
         <v>34102</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>24232</v>
+        <v>25053</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46769</v>
+        <v>47030</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04794200798944939</v>
+        <v>0.04794200798944936</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03406589818789678</v>
+        <v>0.03522003506421368</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06574975576496091</v>
+        <v>0.06611563558179995</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>77</v>
@@ -8532,19 +8532,19 @@
         <v>84937</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>65757</v>
+        <v>67868</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>107554</v>
+        <v>106365</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0505475469958228</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03913324602887187</v>
+        <v>0.04038922967401724</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06400748958731207</v>
+        <v>0.06329949994648988</v>
       </c>
     </row>
     <row r="28">
